--- a/Celda Robotizada/Analisis de seleccion.xlsx
+++ b/Celda Robotizada/Analisis de seleccion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{4C97E48C-7591-42F2-B2FE-7C572B8CD841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75A2D10-64E7-45FF-92EA-78CCA4AA17E3}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{4C97E48C-7591-42F2-B2FE-7C572B8CD841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF486FF7-7A64-4002-9A28-A9FFC78A8CD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC32D7ED-02E4-47DF-8067-2E3F2E97AE26}"/>
   </bookViews>
@@ -174,23 +174,11 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -199,10 +187,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,22 +225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>447092</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:rowOff>38878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1584511</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139983</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731995</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC971396-C2BA-2BCC-0F41-8D6FF3F2A200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7D40FB-E8B3-06F6-5493-66C271E43D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -256,8 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="610578" y="854807"/>
-          <a:ext cx="6496538" cy="5146714"/>
+          <a:off x="1059413" y="816429"/>
+          <a:ext cx="3686689" cy="5268060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -273,23 +273,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101601</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:rowOff>41519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1388408</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>983901</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDE1DC0-A724-F905-4282-065BD74DCEFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC222CB-E716-52DD-2D6A-04ECFBB19CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -305,8 +305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704851" y="920749"/>
-          <a:ext cx="6484910" cy="4968875"/>
+          <a:off x="1217736" y="795145"/>
+          <a:ext cx="4078583" cy="5306165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,138 +615,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9336BE4D-0517-4158-A0A1-938192B4F342}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="9" t="s">
+      <c r="F4" s="11">
+        <v>45076</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E34" s="8" t="s">
+    <row r="6" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="8">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E35" s="8" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="8">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E36" s="8" t="s">
+    <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="8">
+      <c r="H8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
+    <row r="9" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="8">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="8" t="s">
+    <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E39" s="8" t="s">
+      <c r="H10" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="8">
+      <c r="H11" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="8" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="8">
+      <c r="H12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="8" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="11" t="s">
+      <c r="H13" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="11">
-        <f>SUM(F34:F41)</f>
-        <v>28</v>
+      <c r="H14" s="7">
+        <f>SUM(H6:H13)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -765,137 +766,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941DC8D-0771-4726-A6A6-618F5EC9D04E}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="s">
+      <c r="F4" s="11">
+        <v>45076</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E34" s="8" t="s">
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E35" s="8" t="s">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E36" s="8" t="s">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="8" t="s">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H11" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="39" spans="5:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E39" s="8" t="s">
+    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H12" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="8" t="s">
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="8" t="s">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="7">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="10" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="11">
-        <f>SUM(F34:F41)</f>
+      <c r="H15" s="7">
+        <f>SUM(H7:H14)</f>
         <v>32.5</v>
       </c>
     </row>
